--- a/procurement_project/ungm.xlsx
+++ b/procurement_project/ungm.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,681 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Project_Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Registration_Level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Publish_Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Deadline</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Detail</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>UNFPA 2030 AND BEYOND FORESIGHT STUDY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Multiple destinations (see 'Countries' tab below)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22-May-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26-Jun-2024 14:00 (GMT -7.00)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['The United Nations Population Fund (UNFPA), an international development agency, is seeking qualified Bids for the provision of a Foresight Study “UNFPA 2030 and beyond” that aims at wind tunneling the UNFPA business model against immediate (2030) and long-term (2050) future. The main purpose is to develop a future-informed business model that is fit for the future. The findings and recommendations will inform the development of the UNFPA strategic plan, 2026-2029. The study will also contribute to the post-2030 agenda discussions of the United Nations. Your company is hereby invited to submit your best Technical and Financial Bids for the requested services.']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/235290</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Renforcement des capacités et la réalisation d’un programme de Mentorat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29-May-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27-Jun-2024 12:00 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/236010</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Réalisation d’enquêtes de référence (baseline), post-cibalge et de suivi post-distribution de cash+ _OSRO/MAG/118/USA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18-Jun-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27-Jun-2024 12:00 (GMT 3.00)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237942</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REQUEST FOR QUOTATION (RFQ) for the provision of the consultancy firm services of Development and delivery of capacity building component (For local vendors/service providers only)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27-Jun-2024 14:00 (GMT 3.00)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['(For local vendors/service providers only) / rev. 1 deadline extended to be on Thursday 27/06/2024.', 'Development and delivery of capacity building component which includes migration policy research,\nanalysis and writing to researchers and development practitioners in the migration field for “SAWA:\nTowards Equitable Access to Quality Education and Health Services in Egypt for Women, Children and\nOther Members of Migrant and Host Communities in Vulnerable Situations”, Category B', '1. Duty Station of the Consultancy: Cairo, Egypt\n2. Duration of Consultancy: 14 months (July 2024- August 2025)', 'Conduct an intensive policy making and analysis training for researchers and development practitioners\nin the migration field and mentor the participants while writing policy papers to be discussed and\ndisseminated in six roundtables, as well as a closing event.\nThe main objective of the policy making and analysis training and the produced papers, roundtables, and\nseminars is to increase dialogue around migrants’ access to consequently directly influence Government\npolicies to support the mainstreaming of migration into national policies and include the considerations\nof the specific situations, needs and vulnerabilities that are most prevalent amongst migrant communities.']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237200</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Report on evaluation methodologies for social prescribing in the Western Pacific Region - TSA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Multiple destinations (see 'Countries' tab below)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27-Jun-2024 17:00 (GMT 8.00)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['BACKGROUND', 'Social prescribing offers healthcare professionals a way to link individuals with a variety of non-clinical community services to enhance their health and overall well-being1. Rather than solely treating symptoms, this approach tackles the root causes of health issues. Social prescribing can take different forms, all aimed at connecting patients with community resources tailored to their specific needs. For instance, primary care providers can directly recommend patients to local services, or they can refer them to dedicated "link workers" who offer targeted counseling and assistance. These link workers may collaborate with individuals to develop personalized wellness plans, aid in accessing recommended services, and track progress through follow-up sessions.', "Social prescribing has demonstrated positive impacts, including cost-effectiveness, decreased  general practitioner consultations, and enhanced wellbeing and self-efficacy, thus alleviating pressure on community nursing and mental health services2. However, evaluating its effect on physical health is challenging due to the wide variety of activities and methods used, as well as the time required to observe health outcomes. Research on social prescribing has encountered several hurdles in generating robust evidence. These include the varied outcomes resulting from the wide array of services involved, hindering measurement and comparison across studies. Additionally, the majority of research originates from a single healthcare system, limiting its applicability to other contexts and weakening the evidence's strength. Limited number of/absence of randomized controlled trials further complicates establishing causality. Moreover, insufficient reporting of methods, interventions, and outcomes undermines transparency and reproducibility, emphasizing the need for clear reporting to build a solid evidence base for social prescribing3, 4, 5.", 'When evaluating social prescribing, consideration of its purpose, context, and implementation fidelity is essential. Health outcomes, patient-reported experiences, healthcare utilization, cost-effectiveness, and social/community impacts should also be assessed. The WHO Regional Office for the Western Pacific, Division of Healthy Environments, Healthy Ageing unit (WHO WPRO AGE) would like to contract an academic institution/research team/think tank to prepare a report on different models of social prescribing and methodologies for evaluating social prescribing. The methodologies should focus on understanding the impact of social prescribing, especially on social determinants of health, physical and mental health of participants of a social prescribing activity, considering the Western Pacific Regional context.', '', 'PURPOSE/SPECIFIC OBJECTIVE OF THE ACTIVITY', 'Under the direct supervision of WHO WPRO AGE, the work aims to:', '', 'DESCRIPTION OF ACTIVITIES TO BE CARRIED OUT', 'With technical support from AGE in WHO-WPRO, the selected contractor is expected to:', '', 'Output 1: Report on categorizing existing social prescribing models.', '', 'Deliverable 1.1 – A written report reviewing and categorizing existing social prescribing models (e.g. peer-reviewed scientific scholarship, official documents by governments, universities, and intergovernmental agencies).', '', 'Deliverable 1.2 – Draft manuscript in English for submission to a peer-reviewed academic journal for publication.', '', 'Output 2: Report on evaluation methodologies and draft evaluation plans that will inform the social prescribing evaluation guide for the Western Pacific Region.', '', 'Deliverable 2.1 – A written report with:', '', 'Deliverable 2.2 – A summary of WHO products (e.g. guidelines, frameworks, etc.) on measuring social determinants of health and social determinants of health equity and guideline on application for evaluation of social prescribing activities.', '', 'Deliverable 2.3 – Draft manuscript in English for submission to a peer-reviewed academic journal for publication.', '', 'METHODS TO CARRY OUT THE ACTIVITY', '', '', 'QUALIFICATIONS &amp; EXPERIENCE', '', 'EDUCATION', "Essential: Advanced university degree (master's or equivalent) in public health, healthy ageing, social science, social welfare or a related field.", 'Desirable: Doctorate university degree (PhD. or equivalent) in public health, healthy ageing, social science, social welfare or a related field.', '', 'EXPERIENCE', 'Essential: Research experience on social prescribing, healthy ageing, social determinants of health, economy of well-being.', 'Desirable: Knowledge of and research experience in the Western Pacific Region. Experience working with international organizations is an asset.', '', 'TECHNICAL SKILLS &amp; KNOWLEDGE', '', 'LANGUAGES', 'Essential: Expert knowledge of English', 'Desirable: Expert knowledge of Chinese, Japanese, Korean, Malay or any other language spoken in the Western Pacific Region', '', 'COMPETENCIES', '', 'ADDITIONAL INFORMATION', 'Bi-weekly virtual check-in meetings with WHO/DHP/AGE are required', 'APPLICATIONS', 'Qualified and interested specialists should submit the following documents to the Supply Officer through WP RO UNGM  at &lt; wproungm@who.int &gt; by 27 June 2024:', 'Please use Tender Notice No. 237772 as subject to all submission. Only successful candidates will be contacted.', '', 'References']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237772</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>INSTITUTIONAL CONSULTANCY TO UNDERTAKE ENDLINE ASSESSMENT OF ‘STRENGTHENING COMMUNITY RESILIENCE TO COVID-19 IN INFORMAL SETTLEMENTS OF NAIROBI COUNTY AND CLIMATE SHOCKS IN DROUGHT-PRONE SAMBURU COUNTY IN KENYA’ PROJECT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>06-Jun-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27-Jun-2024 23:59 (GMT 3.00)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/236930</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Consultancy for Programme Review of SUN-II effectiveness in selected Scaling Up Nutrition Programme supported districts</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17-Jun-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27-Jun-2024 23:59 (GMT 2.00)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237916</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Individual Consultant Development of Green Finance</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>07-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28-Jun-2024 05:00 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Country:   Zambia', '', 'Description of the Assignment:  Consultancy on Green Finance Framework and Green Loan Guidelines Instruments', '', 'Period of assignment/services (if applicable): 90 Working days', '', 'Proposal should be submitted directly in the portal no later than indicated deadline.', 'Any request for clarification must be sent in writing via messaging functionality in the portal. UNDP will respond in writing including an explanation of the query without identifying the source of inquiry.', '', 'Please indicate whether you intend to submit a bid by creating a draft response without submitting directly in the system. This will enable the system to send notifications in case of amendments of the tender requirements. Should you require further clarifications, kindly communicate using the messaging functionality in the system. Offers must be submitted directly in the system following this link: http://supplier.quantum.partneragencies.org  using the profile you may have in the portal. In case you have never registered before, you can register a profile using the registration link shared via the procurement notice and following the instructions in guides available in UNDP website: https://www.undp.org/procurement/business/resources-for-bidders.  Do not create a new profile if you already have one. Use the forgotten password feature in case you do not remember the password or the username from previous registration.']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237099</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Individual Contractor-Green Finance Framework</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>07-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28-Jun-2024 05:00 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Country:   Zambia', '', 'Description of the Assignment:  International or national consultants eligible to apply. Consultancy to Review Green Finance Framework and Green Loan Guidelines &amp; Supervisory Instruments.', '', 'Period of assignment/services (if applicable):  15 working days', '', 'Proposal should be submitted directly in the portal no later than indicated deadline.', 'Any request for clarification must be sent in writing via messaging functionality in the portal. UNDP will respond in writing including an explanation of the query without identifying the source of inquiry.', '', 'Please indicate whether you intend to submit a bid by creating a draft response without submitting directly in the system. This will enable the system to send notifications in case of amendments of the tender requirements. Should you require further clarifications, kindly communicate using the messaging functionality in the system. Offers must be submitted directly in the system following this link: http://supplier.quantum.partneragencies.org  using the profile you may have in the portal. In case you have never registered before, you can register a profile using the registration link shared via the procurement notice and following the instructions in guides available in UNDP website: https://www.undp.org/procurement/business/resources-for-bidders.  Do not create a new profile if you already have one. Use the forgotten password feature in case you do not remember the password or the username from previous registration.']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237100</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IC - Development of the Strategic Plan - MPUC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28-Jun-2024 05:00 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Country:   Malawi', '', 'Description of the Assignment: Individual Consultancy to Facilitate the Development of The Strategic Plan and Resource Mobilization Strategy for Malawi Peace and Unity Commission', '', 'Period of assignment/services 30 Working days', '', 'Proposal should be submitted directly in the portal no later than indicated deadline.', 'Any request for clarification must be sent in writing via messaging functionality in the portal. UNDP will respond in writing including an explanation of the query without identifying the source of inquiry.', '', 'Please indicate whether you intend to submit a bid by creating a draft response without submitting directly in the system. This will enable the system to send notifications in case of amendments of the tender requirements. Should you require further clarifications, kindly communicate using the messaging functionality in the system. Offers must be submitted directly in the system following this link: http://supplier.quantum.partneragencies.org  using the profile you may have in the portal. In case you have never registered before, you can register a profile using the registration link shared via the procurement notice and following the instructions in guides available in UNDP website: https://www.undp.org/procurement/business/resources-for-bidders.  Do not create a new profile if you already have one. Use the forgotten password feature in case you do not remember the password or the username from previous registration.']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237664</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>National Consultant to develop Guidelines for Wetlands Management</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>08-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28-Jun-2024 08:16 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237138</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Évaluation finale indépendante du projet "Appui à la mise en place d’un Observatoire de la promotion de l’égalité et de l’équité de genre au Tchad</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-Jun-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28-Jun-2024 10:00 (GMT 1.00)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['L’UNFPA nécessite la prestation d’un cabinet pour faire une Évaluation finale indépendante du projet "Appui à la mise en place d’un Observatoire de la promotion de l’égalité et de l’équité de genre au Tchad.', 'Votre société est invitée par la présente à soumettre sa meilleure offre technique et financière pour les services demandés (voir les TdRs).', 'Cette Demande de devis est ouverte à toutes les sociétés légalement constituées en mesure de fournir des produits et services et qui disposent de la capacité juridique à exercer dans le pays ou par l’intermédiaire d’un représentant agréé.', 'Les offres doivent être soumises par un système à DEUX enveloppes. Les soumissionnaires intéressés sont priés de soumettre leur offre technique séparément de leur offre financière contenant les informations sur le prix.', "Toutes les soumissions, comprenant l'offre technique et l'offre financière, doivent parvenir à l'adresse mail indiquée à cet effet dans la demande de cotaion, au plus tard le Vendredi 28 juin 2024 à 10h00, heure de N'Djamena (GMT+1)"]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237057</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accompagnement pour l’amélioration de l’économie des ménages de producteurs participants du projet MIONJO, à travers le développement des chaînes de valeur potentielles  - REGION ATSIMO ANDREFANA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>06-Jun-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28-Jun-2024 12:00 (GMT 3.00)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/236973</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>un.e consultant.e pour assurer la Formation pour le renforcement des compétences</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>08-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28-Jun-2024 18:00 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['Pays : Tunisie', 'Description de la mission :  Recrutement dun.e consultant.e pour assurer la Formation pour le renforcement des compétences interpersonnelles et comportementales pour les jeunes de l’initiative Y4S', '', 'La proposition doit être soumise directement sur le portail au plus tard à la date limite indiquée', 'Toute demande de clarification doit être envoyée par écrit via la fonctionnalité de messagerie du portail. Le PNUD répondra par écrit, y compris une explication de la demande sans identifier la source de la demande.']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237136</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rwanda National Employment Policy Review - ILO/CO-DAR/RWA/RFQ/2024/0001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>31-May-2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30-Jun-2024 00:00 (GMT 2.00)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>["In the context of ILO's collaboration with the Ministry of Public Service and Labour (MIFOTRA), a planned activity is the review of the National Employment Policy (NEP) and its implementation with the perspective of informing and supporting the development of a new policy based on international standards, notably Convention No. 122 concerning Employment Policy and the National Strategy for Transformational two."]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/236373</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Company to conduct AWO Capacity Risk Assessment</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30-Jun-2024 07:00 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/238483</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Apoyo a análisis de campo sobre la situación de desempleo juvenil en GE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30-Jun-2024 12:00 (GMT -4.00)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['Estimado/a, señor/a:', 'El programa de las Naciones Unidas para el Desarrollo (PNUD), en la República de Guinea Ecuatorial, pone en conocimiento de cualquier persona que le pudiera interesar en participar en una licitación (Consultoría nacional de apoyo para el análisis de campo sobre la situación del desempleo juvenil en Guinea Ecuatorial)', 'Descripción de la Asignación: Consultoría nacional de apoyo para el análisis de campo sobre la situación de desempleo juvenil en Guinea Ecuatorial.', 'La propuesta debe enviarse directamente en el portal a mas tardar el 25 de junio 2024.', '', 'Cualquier solicitud de aclaración debe enviarse por escrito a través de la funcionalidad de mensajería en el portal. El PNUD responderá por escrito incluyendo una explicación de la consulta sin identificar la fuente de la consulta.', 'Por favor, indique si tiene intención de presentar una oferta creando un borrador de respuesta sin presentarla directamente en el sistema. Esto permitirá que el sistema envíe notificaciones en caso de que se modifiquen los requisitos de la licitación. Si necesita más aclaraciones, le rogamos que se comunique utilizando la función de mensajería del sistema. Las ofertas deben presentarse directamente en el sistema siguiendo este enlace: http://supplier.quantum.partneragencies.org/ utilizando el perfil que tenga en el portal.', 'En caso de que nunca se haya registrado antes, puede registrar un perfil utilizando el enlace de registro compartido a través del aviso de contratación y siguiendo las instrucciones de las guías disponibles en el sitio web del PNUD: https://www.undp.org/procurement/business/resources-for-bidders. No cree un nuevo perfil si ya tiene uno. Utilice la función de contraseña olvidada en caso de que no recuerde la contraseña o el nombre de usuario del registro anterior.', '']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.ungm.org/Public/Notice/237416</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/procurement_project/ungm.xlsx
+++ b/procurement_project/ungm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,49 +473,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UNFPA 2030 AND BEYOND FORESIGHT STUDY</t>
+          <t>Firm to undertake a capacity assessment of the UNDP South Africa Cou</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multiple destinations (see 'Countries' tab below)</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26-Jun-2024 14:00 (GMT -7.00)</t>
+          <t>04-Jun-2024</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>28-Jun-2024 09:00 (GMT -4.00)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['The United Nations Population Fund (UNFPA), an international development agency, is seeking qualified Bids for the provision of a Foresight Study “UNFPA 2030 and beyond” that aims at wind tunneling the UNFPA business model against immediate (2030) and long-term (2050) future. The main purpose is to develop a future-informed business model that is fit for the future. The findings and recommendations will inform the development of the UNFPA strategic plan, 2026-2029. The study will also contribute to the post-2030 agenda discussions of the United Nations. Your company is hereby invited to submit your best Technical and Financial Bids for the requested services.']</t>
+          <t>['', '1.      Background', 'The Country Programme Document (CPD) 2020-2025, which aims to respond to the most pressing development challenges of the country - unemployment, poverty and inequality - was approved in June 2020 by the Executive Board. The anchor of the UNDP country programme 2020-2025 is youth and women’s empowerment and employment, as the bedrock for reducing poverty and inequality in South Africa.', '', 'The country programme is aligned to three of the nine United Nations Sustainable Development Cooperation Framework (UNSDCF) outcomes, on equitable social and economic opportunities, participation in decision-making and access to justice, and resilience to climate change. It implements the six signature solutions of the UNDP Strategic Plan, 2018-2021 and prioritizes five of the six impact areas of the UNDP regional offer (2020-2021), including the associated foundational enablers. The UNSDCF 2020-2025, is aligned with the Government’s Medium-Term Strategic Framework (MTSF) 2019-2024 and focuses on four of its seven priorities: transform the economy to serve the people; advance social transformation; strengthen governance and public institutions; and South Africa for a better Africa and world.', '', 'The country programme is operationalized through three interrelated portfolios, with critical emphasis on leaving no one behind and achievement of the Sustainable Development Goals: a). Nature, Climate and Energy, b). Transformative Governance and c). Inclusive and Sustainable Growth.', '', 'Policy Analysis is a key in delivering UNDP’s mandate as it produces knowledge that contributes to informing national policies and strategies to accelerate the attainment of SDGs, including in the aspect of development coordination and harmonization. The Accelerator Lab, as a cross-cutting intervention, is critical in ensuring that innovation is embedded in the program to ensure that more effective and efficient solutions to development challenges are integrated. Gender is at the center of the program not only in terms of mainstreaming but also in ensuring the advancing of gender equality in national institutions.\u202f The Social and Environmental Standards (SES) unit supports the mainstreaming  of social and environmental sustainability in our Programmes and Projects to support sustainable development.', '', 'The CPD is implemented in a challenging context characterized mainly by limited opportunities for resources mobilization, including Government Cost Sharing, while there are pressing development challenges in which UNDP is positioned to play a pivotal role, such as the Just Energy Transition, Disaster Risk Management, Building State Capabilities for improved services delivery and Youth Employment promotion. Despite these challenges, UNDP has been able to implement its CPD with some degree of success, contributing to uplifting the image of UNDP in the country and its position as a government and other development actor partner of choice.', '', 'The CPD is in its fourth year of implementation and has recently undergone an Independent Country Programme Evaluation (ICPE) in 2024, ahead of the new CPD development. The CO intends to take this opportunity to start reflecting on a Portfolio Approach to be the feature of the new CPD.', '', 'The country office has noted weaknesses in its business model which impacts its sustainability and has also noted gaps related to technical skills and performance compatible to the current scale of development, monitoring and evaluation requirements. These gaps are restricting the CO’s ability to achieve the targets set in its Integrated Workplan (IWP) and the programme performance entrusted to the CO as well as being able to implement new transformative visions and strategies that accelerate the envisaged results. Observable barriers to effective organizational capacity within the CO include:', '·       Alignment of current technical skills with a fit for purpose organizational structure;', '·       Limited financial and institutional capacity;', '·       Inflexible organizational internal control and procurement systems;', '·       Inflexibility towards internal organizational changes;', '·       Unclear systems and processes for operations and program services delivery;', '·       Weak interaction between various units that results in silos;', '', 'In order to develop the CO’s capacity in line with its long term goals, it is believed that a systematic  assessment of systems/processes and capacities should be conducted with the aim to identify critical gaps and propose strategic and tailored capacity development strategies that would guide the CO for the next 5 years and beyond. UNDP South Africa would thus like to commission a consultancy firm for a comprehensive capacity assessment of UNDP South Africa, leading to the development of tailored capacity building strategy that would enable the CO to deliver on its core mandate more effectively and efficiently.', '', '2.      Objectives and scope of the consultancy', 'The objectives of the consultancy are to:', '', '·        Review the UNDP South Africa business model (i.e. CO structure, systems and processes of running programmes and operations, funding modalities and sources, partnerships and engagement approaches with partners and programmatic interventions) and assess its relevance and suitability to implement the current CPD and develop/implement the next country CPD', '·        Undertake a capacity gap assessment of the UNDP South Africa Country Office and propose strategic capacity development responses based on the UNDP Capacity Assessment Framework;', '·        Develop a comprehensive capacity development strategy which can enable the CO to advance and accelerate the implementation of its CPD for the next three-five years.', '', '', '3.      Scope of the Work', 'The consultancy service will be based in Pretoria and aims to conduct capacity gap assessment of the country office to plan, implement, monitor and deliver its CPD. In addition, the consultancy work is expected to develop a response strategy for the identified gaps but following a consultative and comprehensive approach. This is expected to be guided by UNDP’s capacity assessment framework. The methodology to be applied would involve the three levels of capacity development (individual, organizational and institutional) at the various levels of the country office’s operations at national level and would be expected to provide capacity development plans that address these three levels. The exercise should move away from the traditional capacity building approach: it needs to be purpose-oriented and make reference to international practices, standards and norms when it comes to the functions of the South Africa Country Office.', '', 'The consultant is also expected to prepare a strategy document relevant to the context that addresses:', 'a.      Development planning, management and governance, how to achieve institutional goals', 'b.      Policy implementation gaps, advocacy strategies', 'c.      Approach to innovation', 'd.      Medium to long term priorities', 'e.      Design to generate solution at scale', 'f.        Strategy for achieving results', 'g.       An integrated approach to programming, thematically and geographically.', 'h.', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.ungm.org/Public/Notice/235290</t>
+          <t>https://www.ungm.org/Public/Notice/236696</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Renforcement des capacités et la réalisation d’un programme de Mentorat</t>
+          <t>Accommodation and Conference Package for review of NF/PCVE in UER</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>24-Jun-2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>27-Jun-2024 12:00 (GMT -4.00)</t>
+          <t>28-Jun-2024 09:40 (GMT -4.00)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -540,34 +540,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.ungm.org/Public/Notice/236010</t>
+          <t>https://www.ungm.org/Public/Notice/238515</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Réalisation d’enquêtes de référence (baseline), post-cibalge et de suivi post-distribution de cash+ _OSRO/MAG/118/USA</t>
+          <t>RFQ - Quelimane 2 to 3 July 2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27-Jun-2024 12:00 (GMT 3.00)</t>
+          <t>27-Jun-2024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>28-Jun-2024 10:47 (GMT -4.00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -577,19 +577,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.ungm.org/Public/Notice/237942</t>
+          <t>https://www.ungm.org/Public/Notice/238915</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REQUEST FOR QUOTATION (RFQ) for the provision of the consultancy firm services of Development and delivery of capacity building component (For local vendors/service providers only)</t>
+          <t>UNODC - Study Tour &amp; Workshp Rabat du 1 au 5 Juillet 2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,503 +599,59 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10-Jun-2024</t>
+          <t>24-Jun-2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27-Jun-2024 14:00 (GMT 3.00)</t>
+          <t>28-Jun-2024 12:00 (GMT -4.00)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['(For local vendors/service providers only) / rev. 1 deadline extended to be on Thursday 27/06/2024.', 'Development and delivery of capacity building component which includes migration policy research,\nanalysis and writing to researchers and development practitioners in the migration field for “SAWA:\nTowards Equitable Access to Quality Education and Health Services in Egypt for Women, Children and\nOther Members of Migrant and Host Communities in Vulnerable Situations”, Category B', '1. Duty Station of the Consultancy: Cairo, Egypt\n2. Duration of Consultancy: 14 months (July 2024- August 2025)', 'Conduct an intensive policy making and analysis training for researchers and development practitioners\nin the migration field and mentor the participants while writing policy papers to be discussed and\ndisseminated in six roundtables, as well as a closing event.\nThe main objective of the policy making and analysis training and the produced papers, roundtables, and\nseminars is to increase dialogue around migrants’ access to consequently directly influence Government\npolicies to support the mainstreaming of migration into national policies and include the considerations\nof the specific situations, needs and vulnerabilities that are most prevalent amongst migrant communities.']</t>
+          <t>['', 'BUREAU DU PNUD MAROC', 'UNITÉ DES SERVICES GENERAUX']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.ungm.org/Public/Notice/237200</t>
+          <t>https://www.ungm.org/Public/Notice/238524</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Report on evaluation methodologies for social prescribing in the Western Pacific Region - TSA</t>
+          <t>REQUEST FOR QUOTATION: No. RFQ/HCR/NIGOG/24/029 SUPPLY AND DELIVERY OF STATION TO UNHCR SUB-OFFICE OGOJA, CROSS RIVER STATE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multiple destinations (see 'Countries' tab below)</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>25-Jun-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14-Jun-2024</t>
+          <t>28-Jun-2024 12:00 (GMT -12.00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-Jun-2024 17:00 (GMT 8.00)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['BACKGROUND', 'Social prescribing offers healthcare professionals a way to link individuals with a variety of non-clinical community services to enhance their health and overall well-being1. Rather than solely treating symptoms, this approach tackles the root causes of health issues. Social prescribing can take different forms, all aimed at connecting patients with community resources tailored to their specific needs. For instance, primary care providers can directly recommend patients to local services, or they can refer them to dedicated "link workers" who offer targeted counseling and assistance. These link workers may collaborate with individuals to develop personalized wellness plans, aid in accessing recommended services, and track progress through follow-up sessions.', "Social prescribing has demonstrated positive impacts, including cost-effectiveness, decreased  general practitioner consultations, and enhanced wellbeing and self-efficacy, thus alleviating pressure on community nursing and mental health services2. However, evaluating its effect on physical health is challenging due to the wide variety of activities and methods used, as well as the time required to observe health outcomes. Research on social prescribing has encountered several hurdles in generating robust evidence. These include the varied outcomes resulting from the wide array of services involved, hindering measurement and comparison across studies. Additionally, the majority of research originates from a single healthcare system, limiting its applicability to other contexts and weakening the evidence's strength. Limited number of/absence of randomized controlled trials further complicates establishing causality. Moreover, insufficient reporting of methods, interventions, and outcomes undermines transparency and reproducibility, emphasizing the need for clear reporting to build a solid evidence base for social prescribing3, 4, 5.", 'When evaluating social prescribing, consideration of its purpose, context, and implementation fidelity is essential. Health outcomes, patient-reported experiences, healthcare utilization, cost-effectiveness, and social/community impacts should also be assessed. The WHO Regional Office for the Western Pacific, Division of Healthy Environments, Healthy Ageing unit (WHO WPRO AGE) would like to contract an academic institution/research team/think tank to prepare a report on different models of social prescribing and methodologies for evaluating social prescribing. The methodologies should focus on understanding the impact of social prescribing, especially on social determinants of health, physical and mental health of participants of a social prescribing activity, considering the Western Pacific Regional context.', '', 'PURPOSE/SPECIFIC OBJECTIVE OF THE ACTIVITY', 'Under the direct supervision of WHO WPRO AGE, the work aims to:', '', 'DESCRIPTION OF ACTIVITIES TO BE CARRIED OUT', 'With technical support from AGE in WHO-WPRO, the selected contractor is expected to:', '', 'Output 1: Report on categorizing existing social prescribing models.', '', 'Deliverable 1.1 – A written report reviewing and categorizing existing social prescribing models (e.g. peer-reviewed scientific scholarship, official documents by governments, universities, and intergovernmental agencies).', '', 'Deliverable 1.2 – Draft manuscript in English for submission to a peer-reviewed academic journal for publication.', '', 'Output 2: Report on evaluation methodologies and draft evaluation plans that will inform the social prescribing evaluation guide for the Western Pacific Region.', '', 'Deliverable 2.1 – A written report with:', '', 'Deliverable 2.2 – A summary of WHO products (e.g. guidelines, frameworks, etc.) on measuring social determinants of health and social determinants of health equity and guideline on application for evaluation of social prescribing activities.', '', 'Deliverable 2.3 – Draft manuscript in English for submission to a peer-reviewed academic journal for publication.', '', 'METHODS TO CARRY OUT THE ACTIVITY', '', '', 'QUALIFICATIONS &amp; EXPERIENCE', '', 'EDUCATION', "Essential: Advanced university degree (master's or equivalent) in public health, healthy ageing, social science, social welfare or a related field.", 'Desirable: Doctorate university degree (PhD. or equivalent) in public health, healthy ageing, social science, social welfare or a related field.', '', 'EXPERIENCE', 'Essential: Research experience on social prescribing, healthy ageing, social determinants of health, economy of well-being.', 'Desirable: Knowledge of and research experience in the Western Pacific Region. Experience working with international organizations is an asset.', '', 'TECHNICAL SKILLS &amp; KNOWLEDGE', '', 'LANGUAGES', 'Essential: Expert knowledge of English', 'Desirable: Expert knowledge of Chinese, Japanese, Korean, Malay or any other language spoken in the Western Pacific Region', '', 'COMPETENCIES', '', 'ADDITIONAL INFORMATION', 'Bi-weekly virtual check-in meetings with WHO/DHP/AGE are required', 'APPLICATIONS', 'Qualified and interested specialists should submit the following documents to the Supply Officer through WP RO UNGM  at &lt; wproungm@who.int &gt; by 27 June 2024:', 'Please use Tender Notice No. 237772 as subject to all submission. Only successful candidates will be contacted.', '', 'References']</t>
+          <t>['UNHCR Ogoja Sub-Office would appreciate receiving your firm offer for the procurement of stationery. Find attached in Annex A the Bid Submission Form, Annex B the Financial Offer Form and Annex C the Technical documents (commercial requirements).', 'Your quotation must be valid as least for 90 days. The standard payment terms of UNHCR are net 30 days upon satisfactory delivery of goods or services and acceptance thereof by UNHCR.', 'Please find attached in Annex D the UNHCR’s General Conditions of Contracts for the Provision of Goods and/or Services-2018. You must clearly indicate in your quotation if you accept them.']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.ungm.org/Public/Notice/237772</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>INSTITUTIONAL CONSULTANCY TO UNDERTAKE ENDLINE ASSESSMENT OF ‘STRENGTHENING COMMUNITY RESILIENCE TO COVID-19 IN INFORMAL SETTLEMENTS OF NAIROBI COUNTY AND CLIMATE SHOCKS IN DROUGHT-PRONE SAMBURU COUNTY IN KENYA’ PROJECT</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>06-Jun-2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>27-Jun-2024 23:59 (GMT 3.00)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/236930</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Consultancy for Programme Review of SUN-II effectiveness in selected Scaling Up Nutrition Programme supported districts</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>17-Jun-2024</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27-Jun-2024 23:59 (GMT 2.00)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237916</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Individual Consultant Development of Green Finance</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>07-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>28-Jun-2024 05:00 (GMT -4.00)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['Country:   Zambia', '', 'Description of the Assignment:  Consultancy on Green Finance Framework and Green Loan Guidelines Instruments', '', 'Period of assignment/services (if applicable): 90 Working days', '', 'Proposal should be submitted directly in the portal no later than indicated deadline.', 'Any request for clarification must be sent in writing via messaging functionality in the portal. UNDP will respond in writing including an explanation of the query without identifying the source of inquiry.', '', 'Please indicate whether you intend to submit a bid by creating a draft response without submitting directly in the system. This will enable the system to send notifications in case of amendments of the tender requirements. Should you require further clarifications, kindly communicate using the messaging functionality in the system. Offers must be submitted directly in the system following this link: http://supplier.quantum.partneragencies.org  using the profile you may have in the portal. In case you have never registered before, you can register a profile using the registration link shared via the procurement notice and following the instructions in guides available in UNDP website: https://www.undp.org/procurement/business/resources-for-bidders.  Do not create a new profile if you already have one. Use the forgotten password feature in case you do not remember the password or the username from previous registration.']</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237099</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Individual Contractor-Green Finance Framework</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>07-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28-Jun-2024 05:00 (GMT -4.00)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['Country:   Zambia', '', 'Description of the Assignment:  International or national consultants eligible to apply. Consultancy to Review Green Finance Framework and Green Loan Guidelines &amp; Supervisory Instruments.', '', 'Period of assignment/services (if applicable):  15 working days', '', 'Proposal should be submitted directly in the portal no later than indicated deadline.', 'Any request for clarification must be sent in writing via messaging functionality in the portal. UNDP will respond in writing including an explanation of the query without identifying the source of inquiry.', '', 'Please indicate whether you intend to submit a bid by creating a draft response without submitting directly in the system. This will enable the system to send notifications in case of amendments of the tender requirements. Should you require further clarifications, kindly communicate using the messaging functionality in the system. Offers must be submitted directly in the system following this link: http://supplier.quantum.partneragencies.org  using the profile you may have in the portal. In case you have never registered before, you can register a profile using the registration link shared via the procurement notice and following the instructions in guides available in UNDP website: https://www.undp.org/procurement/business/resources-for-bidders.  Do not create a new profile if you already have one. Use the forgotten password feature in case you do not remember the password or the username from previous registration.']</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237100</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>IC - Development of the Strategic Plan - MPUC</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28-Jun-2024 05:00 (GMT -4.00)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['Country:   Malawi', '', 'Description of the Assignment: Individual Consultancy to Facilitate the Development of The Strategic Plan and Resource Mobilization Strategy for Malawi Peace and Unity Commission', '', 'Period of assignment/services 30 Working days', '', 'Proposal should be submitted directly in the portal no later than indicated deadline.', 'Any request for clarification must be sent in writing via messaging functionality in the portal. UNDP will respond in writing including an explanation of the query without identifying the source of inquiry.', '', 'Please indicate whether you intend to submit a bid by creating a draft response without submitting directly in the system. This will enable the system to send notifications in case of amendments of the tender requirements. Should you require further clarifications, kindly communicate using the messaging functionality in the system. Offers must be submitted directly in the system following this link: http://supplier.quantum.partneragencies.org  using the profile you may have in the portal. In case you have never registered before, you can register a profile using the registration link shared via the procurement notice and following the instructions in guides available in UNDP website: https://www.undp.org/procurement/business/resources-for-bidders.  Do not create a new profile if you already have one. Use the forgotten password feature in case you do not remember the password or the username from previous registration.']</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237664</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>National Consultant to develop Guidelines for Wetlands Management</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>08-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>28-Jun-2024 08:16 (GMT -4.00)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237138</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Évaluation finale indépendante du projet "Appui à la mise en place d’un Observatoire de la promotion de l’égalité et de l’équité de genre au Tchad</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>07-Jun-2024</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>28-Jun-2024 10:00 (GMT 1.00)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['L’UNFPA nécessite la prestation d’un cabinet pour faire une Évaluation finale indépendante du projet "Appui à la mise en place d’un Observatoire de la promotion de l’égalité et de l’équité de genre au Tchad.', 'Votre société est invitée par la présente à soumettre sa meilleure offre technique et financière pour les services demandés (voir les TdRs).', 'Cette Demande de devis est ouverte à toutes les sociétés légalement constituées en mesure de fournir des produits et services et qui disposent de la capacité juridique à exercer dans le pays ou par l’intermédiaire d’un représentant agréé.', 'Les offres doivent être soumises par un système à DEUX enveloppes. Les soumissionnaires intéressés sont priés de soumettre leur offre technique séparément de leur offre financière contenant les informations sur le prix.', "Toutes les soumissions, comprenant l'offre technique et l'offre financière, doivent parvenir à l'adresse mail indiquée à cet effet dans la demande de cotaion, au plus tard le Vendredi 28 juin 2024 à 10h00, heure de N'Djamena (GMT+1)"]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237057</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accompagnement pour l’amélioration de l’économie des ménages de producteurs participants du projet MIONJO, à travers le développement des chaînes de valeur potentielles  - REGION ATSIMO ANDREFANA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Madagascar</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>06-Jun-2024</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>28-Jun-2024 12:00 (GMT 3.00)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/236973</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>un.e consultant.e pour assurer la Formation pour le renforcement des compétences</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>08-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>28-Jun-2024 18:00 (GMT -4.00)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['Pays : Tunisie', 'Description de la mission :  Recrutement dun.e consultant.e pour assurer la Formation pour le renforcement des compétences interpersonnelles et comportementales pour les jeunes de l’initiative Y4S', '', 'La proposition doit être soumise directement sur le portail au plus tard à la date limite indiquée', 'Toute demande de clarification doit être envoyée par écrit via la fonctionnalité de messagerie du portail. Le PNUD répondra par écrit, y compris une explication de la demande sans identifier la source de la demande.']</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237136</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rwanda National Employment Policy Review - ILO/CO-DAR/RWA/RFQ/2024/0001</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>31-May-2024</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30-Jun-2024 00:00 (GMT 2.00)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>["In the context of ILO's collaboration with the Ministry of Public Service and Labour (MIFOTRA), a planned activity is the review of the National Employment Policy (NEP) and its implementation with the perspective of informing and supporting the development of a new policy based on international standards, notably Convention No. 122 concerning Employment Policy and the National Strategy for Transformational two."]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/236373</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Company to conduct AWO Capacity Risk Assessment</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>24-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>30-Jun-2024 07:00 (GMT -4.00)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/238483</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Apoyo a análisis de campo sobre la situación de desempleo juvenil en GE</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Equatorial Guinea</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30-Jun-2024 12:00 (GMT -4.00)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>['Estimado/a, señor/a:', 'El programa de las Naciones Unidas para el Desarrollo (PNUD), en la República de Guinea Ecuatorial, pone en conocimiento de cualquier persona que le pudiera interesar en participar en una licitación (Consultoría nacional de apoyo para el análisis de campo sobre la situación del desempleo juvenil en Guinea Ecuatorial)', 'Descripción de la Asignación: Consultoría nacional de apoyo para el análisis de campo sobre la situación de desempleo juvenil en Guinea Ecuatorial.', 'La propuesta debe enviarse directamente en el portal a mas tardar el 25 de junio 2024.', '', 'Cualquier solicitud de aclaración debe enviarse por escrito a través de la funcionalidad de mensajería en el portal. El PNUD responderá por escrito incluyendo una explicación de la consulta sin identificar la fuente de la consulta.', 'Por favor, indique si tiene intención de presentar una oferta creando un borrador de respuesta sin presentarla directamente en el sistema. Esto permitirá que el sistema envíe notificaciones en caso de que se modifiquen los requisitos de la licitación. Si necesita más aclaraciones, le rogamos que se comunique utilizando la función de mensajería del sistema. Las ofertas deben presentarse directamente en el sistema siguiendo este enlace: http://supplier.quantum.partneragencies.org/ utilizando el perfil que tenga en el portal.', 'En caso de que nunca se haya registrado antes, puede registrar un perfil utilizando el enlace de registro compartido a través del aviso de contratación y siguiendo las instrucciones de las guías disponibles en el sitio web del PNUD: https://www.undp.org/procurement/business/resources-for-bidders. No cree un nuevo perfil si ya tiene uno. Utilice la función de contraseña olvidada en caso de que no recuerde la contraseña o el nombre de usuario del registro anterior.', '']</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.ungm.org/Public/Notice/237416</t>
+          <t>https://www.ungm.org/Public/Notice/238648</t>
         </is>
       </c>
     </row>
